--- a/data/trans_orig/IP1011-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1011-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED8D2320-F2CC-4BB6-B78A-E96CADE3103E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95FCE702-CBFB-4DB4-A02C-1BE8F3DB416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1C39696A-2C3F-4AC7-B2DE-0666C5F7171C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{76CB2F52-CA7D-45CB-A9FA-495B82E04547}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,93 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>99,69%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,66%</t>
   </si>
   <si>
@@ -94,15 +166,9 @@
     <t>98,86%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,89%</t>
   </si>
   <si>
@@ -118,46 +184,25 @@
     <t>1,14%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -172,9 +217,6 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>0,7%</t>
   </si>
   <si>
@@ -184,48 +226,6 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
@@ -277,6 +277,60 @@
     <t>Menores según si padecen sindrome de down en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
     <t>99,4%</t>
   </si>
   <si>
@@ -289,40 +343,28 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>99,68%</t>
@@ -343,48 +385,6 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
@@ -406,6 +406,30 @@
     <t>Menores según si padecen sindrome de down en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
     <t>99,43%</t>
   </si>
   <si>
@@ -418,16 +442,22 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -446,36 +476,6 @@
   </si>
   <si>
     <t>0,68%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -885,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066F8808-51C8-47D8-94F1-89A9C490B684}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7BFFF1-2819-405C-BB84-E24FE77E1730}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1003,10 +1003,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>211475</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,31 +1018,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>194502</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48168</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>632</v>
-      </c>
-      <c r="N4" s="7">
-        <v>405977</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1051,52 +1051,52 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>667</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>661</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1328</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1105,54 +1105,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1164,13 +1164,13 @@
         <v>127031</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>173</v>
@@ -1179,13 +1179,13 @@
         <v>115397</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>365</v>
@@ -1194,19 +1194,19 @@
         <v>242428</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1215,13 +1215,13 @@
         <v>602</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1230,13 +1230,13 @@
         <v>605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1245,13 +1245,13 @@
         <v>1207</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1266,13 +1266,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1281,13 +1281,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1296,114 +1296,114 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>207124</v>
+        <v>211475</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="I10" s="7">
-        <v>209315</v>
+        <v>194502</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>632</v>
+      </c>
+      <c r="N10" s="7">
+        <v>405977</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="7">
-        <v>579</v>
-      </c>
-      <c r="N10" s="7">
-        <v>416439</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>700</v>
+        <v>1328</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>47</v>
@@ -1415,49 +1415,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,67 +1468,67 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I13" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N13" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>52</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>53</v>
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>54</v>
@@ -1570,49 +1570,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,97 +1623,97 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="D16" s="7">
-        <v>149657</v>
+        <v>207124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>274</v>
+      </c>
+      <c r="I16" s="7">
+        <v>209315</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="7">
-        <v>229</v>
-      </c>
-      <c r="I16" s="7">
-        <v>137817</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>579</v>
+      </c>
+      <c r="N16" s="7">
+        <v>416439</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="7">
-        <v>461</v>
-      </c>
-      <c r="N16" s="7">
-        <v>287474</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>700</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>700</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>61</v>
@@ -1725,49 +1725,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,7 +1805,7 @@
         <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>2099</v>
@@ -1826,7 +1826,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -1853,7 +1853,7 @@
         <v>73</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>74</v>
@@ -1886,13 +1886,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1901,13 +1901,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1916,13 +1916,13 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +1943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632B26F-0C99-4202-A9DA-7BC49C676EB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC4E043-EF58-4479-9C38-FB8C8953331C}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2061,70 +2061,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>26</v>
       </c>
-      <c r="H4" s="7">
-        <v>317</v>
-      </c>
       <c r="I4" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2133,13 +2133,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2148,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,54 +2163,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>26</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>317</v>
-      </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2222,13 +2222,13 @@
         <v>126992</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -2237,13 +2237,13 @@
         <v>113262</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>338</v>
@@ -2252,19 +2252,19 @@
         <v>240254</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2273,13 +2273,13 @@
         <v>651</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2288,13 +2288,13 @@
         <v>756</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2303,13 +2303,13 @@
         <v>1407</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2324,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2339,13 +2339,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2354,63 +2354,63 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>206410</v>
+        <v>221978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I10" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>555</v>
+        <v>638</v>
       </c>
       <c r="N10" s="7">
-        <v>416710</v>
+        <v>427376</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2419,19 +2419,19 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>672</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>99</v>
@@ -2443,28 +2443,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,49 +2473,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,100 +2526,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="I13" s="7">
-        <v>22373</v>
+        <v>154183</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>495</v>
       </c>
       <c r="N13" s="7">
-        <v>47828</v>
+        <v>320168</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,49 +2628,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,100 +2681,100 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="D16" s="7">
-        <v>165985</v>
+        <v>206410</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="I16" s="7">
-        <v>154183</v>
+        <v>210300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="N16" s="7">
-        <v>320168</v>
+        <v>416710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>672</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>656</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,49 +2783,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,7 +2848,7 @@
         <v>116</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H19" s="7">
         <v>1016</v>
@@ -2857,13 +2857,13 @@
         <v>705516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>116</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>2080</v>
@@ -2875,7 +2875,7 @@
         <v>65</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>117</v>
@@ -2884,7 +2884,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -2896,7 +2896,7 @@
         <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>119</v>
@@ -2908,10 +2908,10 @@
         <v>1412</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>119</v>
@@ -2929,7 +2929,7 @@
         <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2944,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2959,13 +2959,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -2974,13 +2974,13 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3001,7 +3001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55BDF01-AB94-4F45-A8A3-6F2B735DBFD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168A85DF-6137-42D5-B825-312F140CDE63}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3119,70 +3119,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3191,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3206,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,54 +3221,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3280,13 +3280,13 @@
         <v>122502</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>126</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -3295,13 +3295,13 @@
         <v>111180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>328</v>
@@ -3310,31 +3310,31 @@
         <v>233682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>128</v>
@@ -3346,10 +3346,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>129</v>
@@ -3361,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3382,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3397,13 +3397,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3412,63 +3412,63 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="D10" s="7">
-        <v>205023</v>
+        <v>224359</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>334</v>
+      </c>
+      <c r="I10" s="7">
+        <v>207247</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>666</v>
+      </c>
+      <c r="N10" s="7">
+        <v>431606</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>281</v>
-      </c>
-      <c r="I10" s="7">
-        <v>207420</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="7">
-        <v>570</v>
-      </c>
-      <c r="N10" s="7">
-        <v>412443</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3477,52 +3477,52 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>713</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>713</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,49 +3531,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,100 +3584,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>259</v>
+      </c>
+      <c r="I13" s="7">
+        <v>155997</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>507</v>
+      </c>
+      <c r="N13" s="7">
+        <v>322670</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="7">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22527</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="7">
-        <v>54</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48101</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,49 +3686,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,100 +3739,100 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="D16" s="7">
-        <v>166673</v>
+        <v>205023</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I16" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="N16" s="7">
-        <v>322670</v>
+        <v>412443</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>713</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,49 +3841,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,7 +3906,7 @@
         <v>147</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H19" s="7">
         <v>1061</v>
@@ -3915,13 +3915,13 @@
         <v>704371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
         <v>2125</v>
@@ -3936,13 +3936,13 @@
         <v>148</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -3954,7 +3954,7 @@
         <v>149</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>150</v>
@@ -3966,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>118</v>
@@ -3984,7 +3984,7 @@
         <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>151</v>
@@ -4002,13 +4002,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4017,13 +4017,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4032,13 +4032,13 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1011-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1011-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95FCE702-CBFB-4DB4-A02C-1BE8F3DB416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7C1EB27-26B6-4876-B3E0-4C4BA8D4F833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{76CB2F52-CA7D-45CB-A9FA-495B82E04547}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C80097CD-0620-4047-B397-1936C4D7CA74}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="152">
-  <si>
-    <t>Menores según si padecen sindrome de down en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="155">
+  <si>
+    <t>Menores según si padecen síndrome de down en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,66 +106,66 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>96,85%</t>
+    <t>97,28%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>97,37%</t>
+    <t>97,4%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>98,5%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>99,69%</t>
   </si>
   <si>
@@ -157,7 +175,7 @@
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,31%</t>
+    <t>98,3%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -166,27 +184,18 @@
     <t>98,86%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
     <t>99,18%</t>
   </si>
   <si>
@@ -196,18 +205,24 @@
     <t>99,58%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
     <t>99,3%</t>
   </si>
   <si>
@@ -217,64 +232,55 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,36%</t>
+    <t>99,31%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen sindrome de down en 2012 (Tasa respuesta: 99,29%)</t>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen síndrome de down en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>93,43%</t>
@@ -286,49 +292,46 @@
     <t>96,52%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>97,04%</t>
+    <t>97,55%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,22%</t>
+    <t>96,64%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>99,4%</t>
@@ -337,16 +340,22 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>97,86%</t>
+    <t>97,47%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -355,55 +364,61 @@
     <t>98,97%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,37%</t>
+    <t>98,13%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen sindrome de down en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen síndrome de down en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -412,10 +427,10 @@
     <t>92,39%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>98,84%</t>
@@ -424,10 +439,10 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>99,43%</t>
@@ -436,10 +451,13 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>99,23%</t>
@@ -451,49 +469,40 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,5%</t>
+    <t>98,27%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>99,9%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
     <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
   </si>
 </sst>
 </file>
@@ -504,7 +513,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -600,39 +609,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -684,7 +693,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -795,13 +804,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -810,6 +812,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -874,19 +883,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7BFFF1-2819-405C-BB84-E24FE77E1730}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5CBFB7-BD09-4114-8132-CB07ED2838E9}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,10 +1032,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,34 +1047,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1054,10 +1083,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1069,34 +1098,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1111,13 +1140,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1126,13 +1155,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1141,13 +1170,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1158,49 +1187,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>127031</v>
+        <v>602</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>115397</v>
+        <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>242428</v>
+        <v>1207</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1209,49 +1238,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7">
-        <v>602</v>
+        <v>127031</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="I8" s="7">
-        <v>605</v>
+        <v>115397</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>365</v>
       </c>
       <c r="N8" s="7">
-        <v>1207</v>
+        <v>242428</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1266,13 +1295,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1281,13 +1310,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1296,13 +1325,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1313,49 +1342,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>211475</v>
+        <v>667</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="7">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>194502</v>
+        <v>661</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>632</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>405977</v>
+        <v>1328</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1364,49 +1393,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>667</v>
+        <v>211475</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="I11" s="7">
-        <v>661</v>
+        <v>194502</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>632</v>
       </c>
       <c r="N11" s="7">
-        <v>1328</v>
+        <v>405977</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1421,13 +1450,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1436,13 +1465,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1451,13 +1480,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,49 +1497,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>149657</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>137817</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>287474</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,49 +1548,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>149657</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>137817</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>287474</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1576,13 +1605,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1591,13 +1620,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1606,13 +1635,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,49 +1652,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>207124</v>
+        <v>700</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>209315</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M16" s="7">
-        <v>579</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>416439</v>
+        <v>700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,49 +1703,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="D17" s="7">
-        <v>700</v>
+        <v>207124</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>209315</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>579</v>
       </c>
       <c r="N17" s="7">
-        <v>700</v>
+        <v>416439</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,13 +1760,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1746,13 +1775,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1761,13 +1790,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,49 +1807,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1083</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>720730</v>
+        <v>1970</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H19" s="7">
-        <v>1016</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>679755</v>
+        <v>1266</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="M19" s="7">
-        <v>2099</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>1400485</v>
+        <v>3236</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,49 +1858,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>1083</v>
       </c>
       <c r="D20" s="7">
-        <v>1970</v>
+        <v>720730</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>1016</v>
+      </c>
+      <c r="I20" s="7">
+        <v>679755</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1266</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2099</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1400485</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3236</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,13 +1915,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1901,13 +1930,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1916,13 +1945,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1943,8 +1977,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC4E043-EF58-4479-9C38-FB8C8953331C}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB90AAA-F05F-45BE-90FF-928585D74F1C}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1960,7 +1994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2061,49 +2095,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7">
-        <v>22373</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>54</v>
-      </c>
-      <c r="N4" s="7">
-        <v>47828</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,49 +2146,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7">
+        <v>22373</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>54</v>
+      </c>
+      <c r="N5" s="7">
+        <v>47828</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2203,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2184,13 +2218,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2199,13 +2233,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,49 +2250,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>126992</v>
+        <v>651</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>756</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>158</v>
-      </c>
-      <c r="I7" s="7">
-        <v>113262</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1407</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>338</v>
-      </c>
-      <c r="N7" s="7">
-        <v>240254</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,49 +2301,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7">
-        <v>651</v>
+        <v>126992</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
+        <v>158</v>
+      </c>
+      <c r="I8" s="7">
+        <v>113262</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>756</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="7">
+        <v>338</v>
+      </c>
+      <c r="N8" s="7">
+        <v>240254</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1407</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2358,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2339,13 +2373,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2354,13 +2388,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,49 +2405,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>221978</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>317</v>
-      </c>
-      <c r="I10" s="7">
-        <v>205398</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>638</v>
-      </c>
-      <c r="N10" s="7">
-        <v>427376</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,49 +2456,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>221977</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>317</v>
+      </c>
+      <c r="I11" s="7">
+        <v>205398</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>638</v>
+      </c>
+      <c r="N11" s="7">
+        <v>427376</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,16 +2510,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2494,13 +2528,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2509,13 +2543,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,49 +2560,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>165985</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="H13" s="7">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>154183</v>
+        <v>656</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>656</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>495</v>
-      </c>
-      <c r="N13" s="7">
-        <v>320168</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,49 +2611,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>165985</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="I14" s="7">
-        <v>656</v>
+        <v>154183</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7">
+        <v>495</v>
+      </c>
+      <c r="N14" s="7">
+        <v>320168</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>656</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2668,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2649,13 +2683,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2664,13 +2698,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,49 +2715,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>206410</v>
+        <v>672</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>672</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>275</v>
-      </c>
-      <c r="I16" s="7">
-        <v>210300</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>555</v>
-      </c>
-      <c r="N16" s="7">
-        <v>416710</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,49 +2766,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="D17" s="7">
-        <v>672</v>
+        <v>206410</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>210300</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>555</v>
       </c>
       <c r="N17" s="7">
-        <v>672</v>
+        <v>416710</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2823,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2804,13 +2838,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2819,13 +2853,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,49 +2870,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1064</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>746819</v>
+        <v>1323</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
-        <v>1016</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>705516</v>
+        <v>1412</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
-        <v>2080</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>1452335</v>
+        <v>2735</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,49 +2921,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>1064</v>
       </c>
       <c r="D20" s="7">
-        <v>1323</v>
+        <v>746819</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="I20" s="7">
-        <v>1412</v>
+        <v>705516</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>2080</v>
       </c>
       <c r="N20" s="7">
-        <v>2735</v>
+        <v>1452335</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2978,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2959,13 +2993,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -2974,13 +3008,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3001,8 +3040,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168A85DF-6137-42D5-B825-312F140CDE63}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A42487-4C8D-4795-8479-B3FE1B6378CD}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3018,7 +3057,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3119,49 +3158,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,49 +3209,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3266,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3242,13 +3281,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3257,13 +3296,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,49 +3313,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>122502</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>111180</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>233682</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,49 +3364,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>122502</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>111180</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>233682</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3421,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3397,13 +3436,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3412,13 +3451,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,49 +3468,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>224359</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>207247</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
-        <v>666</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>431606</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,49 +3519,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>224359</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>207247</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>431606</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3576,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3552,13 +3591,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3567,13 +3606,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,49 +3623,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>166673</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>155997</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>322670</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,49 +3674,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>166673</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>155997</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>322670</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3731,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3707,13 +3746,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3722,13 +3761,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,49 +3778,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>289</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>205023</v>
+        <v>713</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>207420</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
-        <v>570</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>412443</v>
+        <v>713</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,49 +3829,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>289</v>
       </c>
       <c r="D17" s="7">
-        <v>713</v>
+        <v>205023</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>207420</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>570</v>
       </c>
       <c r="N17" s="7">
-        <v>713</v>
+        <v>412443</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3886,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -3862,13 +3901,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -3877,13 +3916,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,49 +3933,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1064</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>744131</v>
+        <v>713</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
-        <v>1061</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>704371</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
-        <v>2125</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1448502</v>
+        <v>713</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,49 +3984,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>1064</v>
       </c>
       <c r="D20" s="7">
-        <v>713</v>
+        <v>744131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>704371</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>2125</v>
       </c>
       <c r="N20" s="7">
-        <v>713</v>
+        <v>1448502</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4041,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4017,13 +4056,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4032,13 +4071,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1011-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1011-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7C1EB27-26B6-4876-B3E0-4C4BA8D4F833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F77B5D4E-6BE4-408F-AEF4-8F2DD5DFC392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C80097CD-0620-4047-B397-1936C4D7CA74}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A4500DF3-EE71-487B-9A5D-8D8A2D0B9654}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="157">
   <si>
     <t>Menores según si padecen síndrome de down en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,19 +106,19 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,72%</t>
+    <t>2,4%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>2,6%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -130,13 +130,13 @@
     <t>99,53%</t>
   </si>
   <si>
-    <t>97,28%</t>
+    <t>97,6%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>97,4%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>99,5%</t>
@@ -145,13 +145,13 @@
     <t>98,5%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,89%</t>
+    <t>1,58%</t>
   </si>
   <si>
     <t>0,34%</t>
@@ -169,7 +169,7 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,11%</t>
+    <t>98,42%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -184,7 +184,7 @@
     <t>98,86%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -208,7 +208,7 @@
     <t>Capitales</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -220,7 +220,7 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>98,05%</t>
+    <t>98,31%</t>
   </si>
   <si>
     <t>99,3%</t>
@@ -238,181 +238,193 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,69%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen síndrome de down en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen síndrome de down en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen síndrome de down en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Menores según si padecen síndrome de down en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -472,25 +484,19 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -914,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5CBFB7-BD09-4114-8132-CB07ED2838E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B98C4D-0E20-4D5A-8077-7E7D7F14CCFB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1819,7 +1825,7 @@
         <v>65</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1828,13 +1834,13 @@
         <v>1266</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -1843,13 +1849,13 @@
         <v>3236</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,13 +1870,13 @@
         <v>720730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H20" s="7">
         <v>1016</v>
@@ -1879,10 +1885,10 @@
         <v>679755</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -1894,13 +1900,13 @@
         <v>1400485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,7 +1962,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1977,7 +1983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB90AAA-F05F-45BE-90FF-928585D74F1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE45F1FD-4FD7-4ED0-AB07-BBAC5516491D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1994,7 +2000,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2107,7 +2113,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2122,7 +2128,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2137,7 +2143,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,7 +2161,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2170,7 +2176,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2185,7 +2191,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2256,13 +2262,13 @@
         <v>651</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2271,13 +2277,13 @@
         <v>756</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2286,13 +2292,13 @@
         <v>1407</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,10 +2313,10 @@
         <v>126992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2322,10 +2328,10 @@
         <v>113262</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2337,10 +2343,10 @@
         <v>240254</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2417,7 +2423,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2432,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2447,7 +2453,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2465,13 @@
         <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2480,7 +2486,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2495,7 +2501,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2510,7 +2516,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2572,7 +2578,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2587,7 +2593,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2596,13 +2602,13 @@
         <v>656</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,7 +2626,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2635,7 +2641,7 @@
         <v>54</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -2647,10 +2653,10 @@
         <v>320168</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2721,13 +2727,13 @@
         <v>672</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2751,13 +2757,13 @@
         <v>672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,10 +2778,10 @@
         <v>206410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2802,10 +2808,10 @@
         <v>416710</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -2876,13 +2882,13 @@
         <v>1323</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2891,13 +2897,13 @@
         <v>1412</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2906,13 +2912,13 @@
         <v>2735</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,10 +2933,10 @@
         <v>746819</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -2942,10 +2948,10 @@
         <v>705516</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -2957,13 +2963,13 @@
         <v>1452335</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +3025,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +3046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A42487-4C8D-4795-8479-B3FE1B6378CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA7F28E-FD16-45B9-A9D1-A992B6591819}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3057,7 +3063,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3170,7 +3176,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3185,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3200,7 +3206,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,7 +3224,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3233,7 +3239,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3248,7 +3254,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3325,7 +3331,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3340,7 +3346,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3355,7 +3361,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,7 +3379,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3388,7 +3394,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3403,7 +3409,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3480,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3495,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3510,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3534,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3543,7 +3549,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3558,7 +3564,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3635,7 +3641,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3650,7 +3656,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3665,7 +3671,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,7 +3689,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3698,7 +3704,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3713,7 +3719,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3784,13 +3790,13 @@
         <v>713</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3805,7 +3811,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3820,7 +3826,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,10 +3841,10 @@
         <v>205023</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3853,7 +3859,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3868,7 +3874,7 @@
         <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -3939,13 +3945,13 @@
         <v>713</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3960,7 +3966,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3969,13 +3975,13 @@
         <v>713</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,10 +3996,10 @@
         <v>744131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -4008,7 +4014,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -4020,10 +4026,10 @@
         <v>1448502</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -4082,7 +4088,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1011-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1011-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F77B5D4E-6BE4-408F-AEF4-8F2DD5DFC392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{896C5FFD-A58B-491F-9607-A061895A3A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A4500DF3-EE71-487B-9A5D-8D8A2D0B9654}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{CB1C8437-0374-444D-A4D1-7CF64FA87CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="140">
   <si>
     <t>Menores según si padecen síndrome de down en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,445 +67,394 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen síndrome de down en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen síndrome de down en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen síndrome de down en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen síndrome de down en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
     <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -920,8 +869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B98C4D-0E20-4D5A-8077-7E7D7F14CCFB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01DCE74-02DA-4F76-9C38-A314F6303109}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1038,10 +987,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1053,85 +1002,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1207</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>138121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>152475</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>427</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>290596</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1140,54 +1089,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1196,97 +1145,97 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>602</v>
+        <v>661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>605</v>
+        <v>667</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>1207</v>
+        <v>1328</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="D8" s="7">
-        <v>127031</v>
+        <v>194502</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>115397</v>
+        <v>211475</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>365</v>
+        <v>632</v>
       </c>
       <c r="N8" s="7">
-        <v>242428</v>
+        <v>405977</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1295,153 +1244,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>1328</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>211475</v>
+        <v>137817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="I11" s="7">
-        <v>194502</v>
+        <v>149657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>632</v>
+        <v>461</v>
       </c>
       <c r="N11" s="7">
-        <v>405977</v>
+        <v>287474</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,49 +1399,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>700</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
@@ -1551,52 +1500,52 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="I14" s="7">
-        <v>137817</v>
+        <v>207124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="7">
+        <v>579</v>
+      </c>
+      <c r="N14" s="7">
+        <v>416439</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="7">
-        <v>461</v>
-      </c>
-      <c r="N14" s="7">
-        <v>287474</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,153 +1554,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>700</v>
+        <v>1266</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>700</v>
+        <v>3236</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>305</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="7">
-        <v>207124</v>
+        <v>679755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1083</v>
       </c>
       <c r="I17" s="7">
-        <v>209315</v>
+        <v>720730</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
-        <v>579</v>
+        <v>2099</v>
       </c>
       <c r="N17" s="7">
-        <v>416439</v>
+        <v>1400485</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,217 +1709,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1970</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1266</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3236</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="A19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1083</v>
-      </c>
-      <c r="D20" s="7">
-        <v>720730</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I20" s="7">
-        <v>679755</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2099</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1400485</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1983,8 +1776,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE45F1FD-4FD7-4ED0-AB07-BBAC5516491D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0201767D-DC75-4B09-836A-312AA76E239A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2000,7 +1793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2101,100 +1894,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1407</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>135635</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="I5" s="7">
-        <v>22373</v>
+        <v>152447</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>392</v>
       </c>
       <c r="N5" s="7">
-        <v>47828</v>
+        <v>288082</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,153 +1996,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>1407</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="D8" s="7">
-        <v>126992</v>
+        <v>205398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>158</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>113262</v>
+        <v>221977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>338</v>
+        <v>638</v>
       </c>
       <c r="N8" s="7">
-        <v>240254</v>
+        <v>427376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,72 +2151,72 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2432,79 +2225,79 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="D11" s="7">
-        <v>221978</v>
+        <v>154183</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I11" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>638</v>
+        <v>495</v>
       </c>
       <c r="N11" s="7">
-        <v>427376</v>
+        <v>320168</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,49 +2306,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,94 +2365,94 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I14" s="7">
-        <v>154183</v>
+        <v>206410</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="N14" s="7">
-        <v>320168</v>
+        <v>416710</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,153 +2461,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>672</v>
+        <v>1412</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1323</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>672</v>
+        <v>2735</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>280</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="7">
-        <v>206410</v>
+        <v>705516</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>275</v>
+        <v>1064</v>
       </c>
       <c r="I17" s="7">
-        <v>210300</v>
+        <v>746819</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>555</v>
+        <v>2080</v>
       </c>
       <c r="N17" s="7">
-        <v>416710</v>
+        <v>1452335</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,217 +2616,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1323</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1412</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2735</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1064</v>
-      </c>
-      <c r="D20" s="7">
-        <v>746819</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I20" s="7">
-        <v>705516</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2080</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1452335</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>80</v>
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3046,8 +2683,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA7F28E-FD16-45B9-A9D1-A992B6591819}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418E3543-9748-4C2C-8D78-7E681899095E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3063,7 +2700,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3170,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3185,13 +2822,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3200,64 +2837,64 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I5" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N5" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,54 +2903,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3325,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3340,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3355,64 +2992,64 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D8" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N8" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,54 +3058,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3480,13 +3117,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3495,13 +3132,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3510,64 +3147,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I11" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N11" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,49 +3213,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,94 +3272,94 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="I14" s="7">
-        <v>155997</v>
+        <v>205023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="N14" s="7">
-        <v>322670</v>
+        <v>412443</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,87 +3368,87 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>713</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3820,64 +3457,64 @@
         <v>713</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>289</v>
+        <v>1061</v>
       </c>
       <c r="D17" s="7">
-        <v>205023</v>
+        <v>704371</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
-        <v>281</v>
+        <v>1064</v>
       </c>
       <c r="I17" s="7">
-        <v>207420</v>
+        <v>744131</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>570</v>
+        <v>2125</v>
       </c>
       <c r="N17" s="7">
-        <v>412443</v>
+        <v>1448502</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,217 +3523,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>713</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>713</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1064</v>
-      </c>
-      <c r="D20" s="7">
-        <v>744131</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I20" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2125</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1448502</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>80</v>
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
